--- a/data/pca/factorExposure/factorExposure_2012-11-05.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-11-05.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>0.001530986541232079</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.00204864530597492</v>
+      </c>
+      <c r="C2">
+        <v>-0.03011365368948899</v>
+      </c>
+      <c r="D2">
+        <v>0.00618382677180806</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.001317009105695385</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.006864848006895417</v>
+      </c>
+      <c r="C4">
+        <v>-0.08315315909738036</v>
+      </c>
+      <c r="D4">
+        <v>0.07531661174690314</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.001285361699470786</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01366835639300319</v>
+      </c>
+      <c r="C6">
+        <v>-0.1130700883097784</v>
+      </c>
+      <c r="D6">
+        <v>0.02355683432102266</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.002269291948934396</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.004749343630691961</v>
+      </c>
+      <c r="C7">
+        <v>-0.05815822616912742</v>
+      </c>
+      <c r="D7">
+        <v>0.03169119594477914</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-7.988445546012915e-05</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005851617571703383</v>
+      </c>
+      <c r="C8">
+        <v>-0.03640965516785093</v>
+      </c>
+      <c r="D8">
+        <v>0.03993917328758589</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0.003892194004001342</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.005052226623073319</v>
+      </c>
+      <c r="C9">
+        <v>-0.07116914038179946</v>
+      </c>
+      <c r="D9">
+        <v>0.07481235045370002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>-0.002177253777206524</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.006163782386112384</v>
+      </c>
+      <c r="C10">
+        <v>-0.05687909628909672</v>
+      </c>
+      <c r="D10">
+        <v>-0.1956463299921132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0.004568915427155222</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005498962324273341</v>
+      </c>
+      <c r="C11">
+        <v>-0.0796967567324826</v>
+      </c>
+      <c r="D11">
+        <v>0.06366538848134694</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.001600078841117494</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.003926850564177975</v>
+      </c>
+      <c r="C12">
+        <v>-0.06404133903343874</v>
+      </c>
+      <c r="D12">
+        <v>0.05023909109972342</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>-0.001841749864940287</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.009002119198834029</v>
+      </c>
+      <c r="C13">
+        <v>-0.07014364693489956</v>
+      </c>
+      <c r="D13">
+        <v>0.05555078365447937</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>0.002328343682226042</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001015108890396329</v>
+      </c>
+      <c r="C14">
+        <v>-0.04388670499339556</v>
+      </c>
+      <c r="D14">
+        <v>0.006444060566414556</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.0009591692450851516</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.005942643837434093</v>
+      </c>
+      <c r="C15">
+        <v>-0.04138122904568299</v>
+      </c>
+      <c r="D15">
+        <v>0.02871389138395275</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.002422692902118076</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.00490708350714159</v>
+      </c>
+      <c r="C16">
+        <v>-0.0640657382056163</v>
+      </c>
+      <c r="D16">
+        <v>0.05511384456607739</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.0004879107298937003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.008818565521840595</v>
+      </c>
+      <c r="C20">
+        <v>-0.06609930327875085</v>
+      </c>
+      <c r="D20">
+        <v>0.04652336686221732</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>-0.00581472112410198</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.009834410718320028</v>
+      </c>
+      <c r="C21">
+        <v>-0.02111154524349854</v>
+      </c>
+      <c r="D21">
+        <v>0.0397104668224211</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>0.01717272571617526</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.006375367064661706</v>
+      </c>
+      <c r="C22">
+        <v>-0.09235454884301703</v>
+      </c>
+      <c r="D22">
+        <v>0.1191225068599727</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>0.01744549113029943</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006179915280706317</v>
+      </c>
+      <c r="C23">
+        <v>-0.09302417756181629</v>
+      </c>
+      <c r="D23">
+        <v>0.1202796722637256</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>0.003666990605209185</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.005389959635938116</v>
+      </c>
+      <c r="C24">
+        <v>-0.07567863607203715</v>
+      </c>
+      <c r="D24">
+        <v>0.06747449234926856</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>0.005872377774578246</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.0031344722039105</v>
+      </c>
+      <c r="C25">
+        <v>-0.07808093137167064</v>
+      </c>
+      <c r="D25">
+        <v>0.06527313707590184</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>0.004032184495953434</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003542997071981635</v>
+      </c>
+      <c r="C26">
+        <v>-0.03889193316305982</v>
+      </c>
+      <c r="D26">
+        <v>0.02419059637726433</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>0.007552227458460294</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.0007377537737535149</v>
+      </c>
+      <c r="C28">
+        <v>-0.1054481368831914</v>
+      </c>
+      <c r="D28">
+        <v>-0.3242574306243669</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>0.001320586852742995</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.002734242557978976</v>
+      </c>
+      <c r="C29">
+        <v>-0.04946657136399082</v>
+      </c>
+      <c r="D29">
+        <v>0.007233599935245641</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>0.005283030428097806</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.01003640532932474</v>
+      </c>
+      <c r="C30">
+        <v>-0.1429311584955917</v>
+      </c>
+      <c r="D30">
+        <v>0.1069864465962088</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.0003592392267717157</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006285616162607557</v>
+      </c>
+      <c r="C31">
+        <v>-0.0440606810168811</v>
+      </c>
+      <c r="D31">
+        <v>0.0296504182053937</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0008450147768163796</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.003670604339780507</v>
+      </c>
+      <c r="C32">
+        <v>-0.04005265561017667</v>
+      </c>
+      <c r="D32">
+        <v>0.02643354070722259</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.003685120832657497</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.008593768399547189</v>
+      </c>
+      <c r="C33">
+        <v>-0.08694461730649364</v>
+      </c>
+      <c r="D33">
+        <v>0.0667642352027632</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>0.005228322387491068</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.00401342054833145</v>
+      </c>
+      <c r="C34">
+        <v>-0.05791650499377578</v>
+      </c>
+      <c r="D34">
+        <v>0.05644629196769868</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.0005119001745762578</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.005146786159268166</v>
+      </c>
+      <c r="C35">
+        <v>-0.04093946527062368</v>
+      </c>
+      <c r="D35">
+        <v>0.01881929826198627</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>0.004557704415770202</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.00106901391943462</v>
+      </c>
+      <c r="C36">
+        <v>-0.0250692896734242</v>
+      </c>
+      <c r="D36">
+        <v>0.02359784290184756</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>-0.001030383780925199</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.00881173535802361</v>
+      </c>
+      <c r="C38">
+        <v>-0.03494526315369277</v>
+      </c>
+      <c r="D38">
+        <v>0.01552187568049942</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>0.01360045029518395</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.001105745260456656</v>
+      </c>
+      <c r="C39">
+        <v>-0.1148965873766237</v>
+      </c>
+      <c r="D39">
+        <v>0.07886793084886019</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>0.009434263864396513</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.003567654262696529</v>
+      </c>
+      <c r="C40">
+        <v>-0.09068517192419055</v>
+      </c>
+      <c r="D40">
+        <v>0.01385133882464283</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.0007704623771008016</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.006990198523742166</v>
+      </c>
+      <c r="C41">
+        <v>-0.03658910244683959</v>
+      </c>
+      <c r="D41">
+        <v>0.03770600889723211</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>0.003863601802582244</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.003849497546192094</v>
+      </c>
+      <c r="C43">
+        <v>-0.05290463696798246</v>
+      </c>
+      <c r="D43">
+        <v>0.02614193844233242</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>0.01585650112507791</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.002978232826444384</v>
+      </c>
+      <c r="C44">
+        <v>-0.1073392496875942</v>
+      </c>
+      <c r="D44">
+        <v>0.06656918800540801</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>0.0008659983528015218</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002134838969456902</v>
+      </c>
+      <c r="C46">
+        <v>-0.0329007894696305</v>
+      </c>
+      <c r="D46">
+        <v>0.0322163631092501</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.002115331310615412</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002245641808539056</v>
+      </c>
+      <c r="C47">
+        <v>-0.03638092625689992</v>
+      </c>
+      <c r="D47">
+        <v>0.0195177010275574</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>-0.004014579671807834</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006746853892544286</v>
+      </c>
+      <c r="C48">
+        <v>-0.03058292726054484</v>
+      </c>
+      <c r="D48">
+        <v>0.03514506415434475</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.01286543168558924</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01661983803350455</v>
+      </c>
+      <c r="C49">
+        <v>-0.1865691287882409</v>
+      </c>
+      <c r="D49">
+        <v>0.01454996970607432</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>0.002052877683682054</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003604143116375172</v>
+      </c>
+      <c r="C50">
+        <v>-0.04277751596766481</v>
+      </c>
+      <c r="D50">
+        <v>0.0366271515151712</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>1.912485275057634e-05</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004773027233858809</v>
+      </c>
+      <c r="C51">
+        <v>-0.02555994493702201</v>
+      </c>
+      <c r="D51">
+        <v>0.02161587369468525</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.001080554264821047</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02099086868634339</v>
+      </c>
+      <c r="C53">
+        <v>-0.1695170874660488</v>
+      </c>
+      <c r="D53">
+        <v>0.02680436308314492</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>-0.001597757754462387</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008803395384490775</v>
+      </c>
+      <c r="C54">
+        <v>-0.05448262050824687</v>
+      </c>
+      <c r="D54">
+        <v>0.04443278211755726</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.005700108738341279</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009543259883533651</v>
+      </c>
+      <c r="C55">
+        <v>-0.1093683051778294</v>
+      </c>
+      <c r="D55">
+        <v>0.04016716781739685</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.001822746052431518</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.01996859309957458</v>
+      </c>
+      <c r="C56">
+        <v>-0.1758247490518423</v>
+      </c>
+      <c r="D56">
+        <v>0.014187922827262</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.00991873155293807</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.0195172977627387</v>
+      </c>
+      <c r="C58">
+        <v>-0.1097476061397002</v>
+      </c>
+      <c r="D58">
+        <v>0.0636791997507193</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>0.009521204017458231</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.01022356659055967</v>
+      </c>
+      <c r="C59">
+        <v>-0.163901144423288</v>
+      </c>
+      <c r="D59">
+        <v>-0.334378679265081</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.005807643893179885</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.025330525524404</v>
+      </c>
+      <c r="C60">
+        <v>-0.2256716781069288</v>
+      </c>
+      <c r="D60">
+        <v>0.02594775520504919</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>0.01531002451529853</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.001850935233572347</v>
+      </c>
+      <c r="C61">
+        <v>-0.09487584341438861</v>
+      </c>
+      <c r="D61">
+        <v>0.05740473686077034</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>-0.1586302037640003</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.148265726069236</v>
+      </c>
+      <c r="C62">
+        <v>-0.09571733211252453</v>
+      </c>
+      <c r="D62">
+        <v>0.03030211274023107</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.0007402278499274166</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006679587555194146</v>
+      </c>
+      <c r="C63">
+        <v>-0.05434768213970101</v>
+      </c>
+      <c r="D63">
+        <v>0.02825737114543397</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.0009406384900618301</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01541040517461561</v>
+      </c>
+      <c r="C64">
+        <v>-0.1035264995477976</v>
+      </c>
+      <c r="D64">
+        <v>0.06085493144588307</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>-0.001680905783395338</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01789717485522397</v>
+      </c>
+      <c r="C65">
+        <v>-0.1234392951743624</v>
+      </c>
+      <c r="D65">
+        <v>0.02105332408062968</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>0.007911908289652034</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01311356262242567</v>
+      </c>
+      <c r="C66">
+        <v>-0.1589740946276002</v>
+      </c>
+      <c r="D66">
+        <v>0.1124165423380709</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>-0.002828948446580052</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01533624515219618</v>
+      </c>
+      <c r="C67">
+        <v>-0.06624306513614521</v>
+      </c>
+      <c r="D67">
+        <v>0.02784069565187378</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>0.007400149308424133</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.001155148654250774</v>
+      </c>
+      <c r="C68">
+        <v>-0.08551779968738336</v>
+      </c>
+      <c r="D68">
+        <v>-0.263173390208769</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>0.002417183502046034</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.006063069893055726</v>
+      </c>
+      <c r="C69">
+        <v>-0.05084413161357185</v>
+      </c>
+      <c r="D69">
+        <v>0.03771267391333232</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>6.441140762080081e-05</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001840545420686631</v>
+      </c>
+      <c r="C70">
+        <v>-0.003775697078286713</v>
+      </c>
+      <c r="D70">
+        <v>0.002362711295856235</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.001731230770849471</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.005957879758192737</v>
+      </c>
+      <c r="C71">
+        <v>-0.09243056248379569</v>
+      </c>
+      <c r="D71">
+        <v>-0.3047979165343248</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.005927632724596169</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.0164394995065167</v>
+      </c>
+      <c r="C72">
+        <v>-0.1529220022652693</v>
+      </c>
+      <c r="D72">
+        <v>0.01269841120098391</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.0158871636020553</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.0315827510325414</v>
+      </c>
+      <c r="C73">
+        <v>-0.2828055938059022</v>
+      </c>
+      <c r="D73">
+        <v>0.05821993898348709</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>0.007300416361741092</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.002029132529834468</v>
+      </c>
+      <c r="C74">
+        <v>-0.1033151148272332</v>
+      </c>
+      <c r="D74">
+        <v>0.03595385561193002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>0.004531845938849484</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01112377139099997</v>
+      </c>
+      <c r="C75">
+        <v>-0.1221532832672916</v>
+      </c>
+      <c r="D75">
+        <v>0.02212369089178728</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>-0.005186817179745427</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.0225323309271796</v>
+      </c>
+      <c r="C76">
+        <v>-0.1486982434103281</v>
+      </c>
+      <c r="D76">
+        <v>0.05465365560822881</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>-0.002821995395935039</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02245387006340638</v>
+      </c>
+      <c r="C77">
+        <v>-0.1150903968144827</v>
+      </c>
+      <c r="D77">
+        <v>0.05994448413739244</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>-0.0002269212559788923</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.0149770073290915</v>
+      </c>
+      <c r="C78">
+        <v>-0.09626173598670182</v>
+      </c>
+      <c r="D78">
+        <v>0.07552096423067252</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>-0.02112041411486345</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03815511229868097</v>
+      </c>
+      <c r="C79">
+        <v>-0.1570800816907857</v>
+      </c>
+      <c r="D79">
+        <v>0.03098845051191429</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>-0.005272801946401137</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01017578927257633</v>
+      </c>
+      <c r="C80">
+        <v>-0.03996971115987909</v>
+      </c>
+      <c r="D80">
+        <v>0.03056232161963229</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.0007384029061363158</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.0156975008318112</v>
+      </c>
+      <c r="C81">
+        <v>-0.1296912542204488</v>
+      </c>
+      <c r="D81">
+        <v>0.03724219448372971</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>-0.001958777850226325</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.02009193091858283</v>
+      </c>
+      <c r="C82">
+        <v>-0.139035367706261</v>
+      </c>
+      <c r="D82">
+        <v>0.04154586417777806</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.006246937841271606</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.01051530452554682</v>
+      </c>
+      <c r="C83">
+        <v>-0.05875842644739523</v>
+      </c>
+      <c r="D83">
+        <v>0.04802750672347268</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>-0.01253842395726144</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01151199310133849</v>
+      </c>
+      <c r="C84">
+        <v>-0.03689322662399899</v>
+      </c>
+      <c r="D84">
+        <v>-0.00264497184476227</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>-0.0126446398157011</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02915891468426294</v>
+      </c>
+      <c r="C85">
+        <v>-0.1251782501823261</v>
+      </c>
+      <c r="D85">
+        <v>0.03953519955332781</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>0.002519484223983439</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.0047261449296293</v>
+      </c>
+      <c r="C86">
+        <v>-0.05012156549324551</v>
+      </c>
+      <c r="D86">
+        <v>0.03292126661459593</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.004218134804833737</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01106874283539683</v>
+      </c>
+      <c r="C87">
+        <v>-0.1287866083258034</v>
+      </c>
+      <c r="D87">
+        <v>0.07096594655860106</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>0.01149243938584132</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.002668231298884233</v>
+      </c>
+      <c r="C88">
+        <v>-0.06350700972821091</v>
+      </c>
+      <c r="D88">
+        <v>0.02344708870143626</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>0.01556332375136793</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.001425198228891166</v>
+      </c>
+      <c r="C89">
+        <v>-0.1396747611324336</v>
+      </c>
+      <c r="D89">
+        <v>-0.3198553582934663</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>0.003931054588248847</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.006890576290478282</v>
+      </c>
+      <c r="C90">
+        <v>-0.1200033464260069</v>
+      </c>
+      <c r="D90">
+        <v>-0.3149477720791728</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.001819221886096855</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01052437247136373</v>
+      </c>
+      <c r="C91">
+        <v>-0.1004742243800541</v>
+      </c>
+      <c r="D91">
+        <v>0.02237217964716306</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>0.01111077413907157</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.001263064752956355</v>
+      </c>
+      <c r="C92">
+        <v>-0.1357924839153056</v>
+      </c>
+      <c r="D92">
+        <v>-0.3245815408122771</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>0.002448370708599407</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.005333501662604433</v>
+      </c>
+      <c r="C93">
+        <v>-0.1051450197954208</v>
+      </c>
+      <c r="D93">
+        <v>-0.3017182860254183</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.0002270920171029209</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02203151819740982</v>
+      </c>
+      <c r="C94">
+        <v>-0.1455257219516575</v>
+      </c>
+      <c r="D94">
+        <v>0.046508260498229</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.003566938960030338</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.0167171895761737</v>
+      </c>
+      <c r="C95">
+        <v>-0.1219561580326518</v>
+      </c>
+      <c r="D95">
+        <v>0.06136301738245605</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.001028767394824177</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03656060715581069</v>
+      </c>
+      <c r="C97">
+        <v>-0.2201589289338233</v>
+      </c>
+      <c r="D97">
+        <v>-0.007355044793249102</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.00428610453521672</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.0379712581455199</v>
+      </c>
+      <c r="C98">
+        <v>-0.2534493101864125</v>
+      </c>
+      <c r="D98">
+        <v>0.04350506599157742</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>-0.9852615897319805</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9814802397964956</v>
+      </c>
+      <c r="C99">
+        <v>0.1195641013496368</v>
+      </c>
+      <c r="D99">
+        <v>-0.0237012958098076</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>0.001238899194032694</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.002773962874657952</v>
+      </c>
+      <c r="C101">
+        <v>-0.04960063464083031</v>
+      </c>
+      <c r="D101">
+        <v>0.00761631623154577</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
